--- a/biology/Zoologie/Dictyoptera/Dictyoptera.xlsx
+++ b/biology/Zoologie/Dictyoptera/Dictyoptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dictyoptères (Dictyoptera) forment un super-ordre (ou parfois un ordre) d'insectes, actuellement désuet.
 Il a longtemps été divisé en trois, les blattoptères (blattes, cafards ou cancrelats), les mantoptères (mantes) et les isoptères (termites) en raison de leurs grandes différences d'aspects. Cependant, divers caractères (pièces buccales de type broyeur, tarse de 5 articles, aile antérieure en élytre, aile postérieure membraneuse repliable, pièces de cerques articulées et confection d'une oothèque sauf chez les termites) ont justifié leur regroupement au sein d'un même super-ordre Polyneoptera, qui en 2011 ne comporte plus que deux ordres (Blattodea et Mantodea), Isoptera ayant été intégré au sein de Blattodea.
@@ -515,12 +527,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification phylogénétique
-Anciennement Blattodea (les blattes)
-Bien connues de nos foyers, les blattes, cafards et autres cancrelats sont représentés par environ 4 600 espèces dans le monde. Au total, moins de 1 % des espèces connues de blattes interagissent avec l'homme et peuvent être réellement considérées comme des indésirables. Près de 25 à 30 espèces peuvent être problématiques et de ce nombre, la moitié cause des problèmes occasionnels. La grande majorité vit en milieu tropical ; les espèces résidant dans nos contrées sont, elles, plus petites et se rencontrent souvent dans la litière végétale.
+          <t>Anciennement Blattodea (les blattes)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien connues de nos foyers, les blattes, cafards et autres cancrelats sont représentés par environ 4 600 espèces dans le monde. Au total, moins de 1 % des espèces connues de blattes interagissent avec l'homme et peuvent être réellement considérées comme des indésirables. Près de 25 à 30 espèces peuvent être problématiques et de ce nombre, la moitié cause des problèmes occasionnels. La grande majorité vit en milieu tropical ; les espèces résidant dans nos contrées sont, elles, plus petites et se rencontrent souvent dans la litière végétale.
 Les blattes sont très plates, dotées de longues antennes, elles courent avec agilité à la tombée de la nuit. Les élytres sont souvent plus courts chez les femelles. Les ailes peuvent être complètes ou atrophiées, les formes ailées volant peu. Le pronotum très ample recouvre la tête. Chez certaines espèces, les femelles pondent une oothèque, une capsule protectrice comprenant les œufs. Ces femelles la portent à l'extrémité de l'abdomen ou encore la dépose sur le substrat ou à l'intérieur d'une crevasse. Les petits ressemblent à des adultes dépourvus d'ailes.
-Isoptera (les termites)
-Les termites sont des blattes sociales[1] polymorphes. Les plus archaïques se bornent à creuser des galeries dans le bois mort, mais la plupart élaborent d'énormes monticules de terre : les termitières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dictyoptera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dictyoptera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description des sous-ordres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anciennement Blattodea (les blattes)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Isoptera (les termites)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les termites sont des blattes sociales polymorphes. Les plus archaïques se bornent à creuser des galeries dans le bois mort, mais la plupart élaborent d'énormes monticules de terre : les termitières.
 Quelque 2 000 espèces sont recensées dans le monde.
 Les colonies sont constituées d'individus sexués, mâle et femelle (laquelle peut vivre très longtemps). Les femelles ne cessent de grandir, atteignant parfois jusqu'à 10 cm de long. Les ouvriers et les soldats constituent la grande majorité des effectifs. Les termites consomment essentiellement du bois (causant parfois d'énormes dégâts) dont ils digèrent la cellulose en abritant des bactéries ou des protozoaires dans leur estomac. Les ouvrières régurgitent la cellulose prédigérée pour en nourrir larves et soldats.
 Mantodea (les mantes)
